--- a/benchmark_iris_res.xlsx
+++ b/benchmark_iris_res.xlsx
@@ -435,22 +435,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>8.401803774299999</v>
+        <v>8.045921100599999</v>
       </c>
       <c r="C2">
-        <v>1.8400728479</v>
+        <v>1.6535763914</v>
       </c>
       <c r="D2">
-        <v>0.4965292348</v>
+        <v>0.4917327084</v>
       </c>
       <c r="E2">
-        <v>0.0086095693</v>
+        <v>0.0095544033</v>
       </c>
       <c r="F2">
-        <v>0.1988875615</v>
+        <v>0.1981495423</v>
       </c>
       <c r="G2">
-        <v>0.0044863841</v>
+        <v>0.0039626853</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -458,22 +458,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>11.3315742281</v>
+        <v>10.3455890994</v>
       </c>
       <c r="C3">
-        <v>2.363883766</v>
+        <v>2.3428745331</v>
       </c>
       <c r="D3">
-        <v>0.5014150901</v>
+        <v>0.4871404119</v>
       </c>
       <c r="E3">
-        <v>0.0143308715</v>
+        <v>0.0235880626</v>
       </c>
       <c r="F3">
-        <v>0.1900590437</v>
+        <v>0.1993579093</v>
       </c>
       <c r="G3">
-        <v>0.0117514983</v>
+        <v>0.0131629743</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,22 +481,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>8.111109323999999</v>
+        <v>7.9015546244</v>
       </c>
       <c r="C4">
-        <v>1.888061075</v>
+        <v>1.596426723</v>
       </c>
       <c r="D4">
-        <v>0.4932304089</v>
+        <v>0.4940488978</v>
       </c>
       <c r="E4">
-        <v>0.0122563634</v>
+        <v>0.0115855836</v>
       </c>
       <c r="F4">
-        <v>0.1906650545</v>
+        <v>0.1938878187</v>
       </c>
       <c r="G4">
-        <v>0.0073324902</v>
+        <v>0.0069952424</v>
       </c>
     </row>
   </sheetData>
